--- a/Docs/Журнал спринтов.xlsx
+++ b/Docs/Журнал спринтов.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Chat-Bot\Документы для команды\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Chat-Bot\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="24.02" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="03.03" sheetId="3" r:id="rId3"/>
     <sheet name="04.03-10.03" sheetId="4" r:id="rId4"/>
     <sheet name="04.03" sheetId="5" r:id="rId5"/>
+    <sheet name="Лист1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
   <si>
     <t>Функции</t>
   </si>
@@ -277,6 +278,27 @@
   </si>
   <si>
     <t>P.S. Кроме сумму дохода, я бы отправлял ещё тип дохода (зарплата, аванс, …)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">настройка комманд бота (через @BotFather добавить команды и описание к ним)
+/auth - авторизация пользователя
+/help - вызов справки о возможностях бота
+</t>
+  </si>
+  <si>
+    <t>интеграция всего</t>
+  </si>
+  <si>
+    <t>Реализовать промежуточную сущность между телеграмом и таблицами (формат, где хранится, как туда писать данные, как получать оттуда данные, …)</t>
+  </si>
+  <si>
+    <t>разработать и реализовать создание пользовательских таблиц Доходы, Расходы, Статистика на гугл диске пользователя</t>
+  </si>
+  <si>
+    <t>Вывод сообщений об ошибках пользователю в чат</t>
+  </si>
+  <si>
+    <t>Формирование любых сообщений  пользователю</t>
   </si>
 </sst>
 </file>
@@ -689,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -761,81 +783,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -868,9 +815,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -878,6 +822,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1198,148 +1226,148 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="53" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="53" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="56">
         <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="41"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="38"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="57"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="39"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="58"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="59" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="59" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="6">
         <v>2</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="62">
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="44"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="47"/>
+      <c r="F8" s="63"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="44"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="44"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="47"/>
+      <c r="F9" s="63"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="3">
         <v>2</v>
       </c>
-      <c r="F10" s="47"/>
+      <c r="F10" s="63"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="44"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="44"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="F11" s="47"/>
+      <c r="F11" s="63"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="44"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="44"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="47"/>
+      <c r="F12" s="63"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="44"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="44"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="47"/>
+      <c r="F13" s="63"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="45"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="10">
         <v>2</v>
       </c>
-      <c r="F14" s="48"/>
+      <c r="F14" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1396,13 +1424,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="67" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="65" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="11">
@@ -1413,11 +1441,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="52"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="12">
         <v>1</v>
       </c>
@@ -1426,11 +1454,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="52"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="12">
         <v>1</v>
       </c>
@@ -1439,11 +1467,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="52"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="76" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="12">
@@ -1454,11 +1482,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="52"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="60"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="12">
         <v>2</v>
       </c>
@@ -1467,7 +1495,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="52"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="19" t="s">
         <v>28</v>
       </c>
@@ -1482,7 +1510,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="52"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="19" t="s">
         <v>29</v>
       </c>
@@ -1497,7 +1525,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="52"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="19" t="s">
         <v>30</v>
       </c>
@@ -1512,11 +1540,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="52"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="76" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="12">
@@ -1527,11 +1555,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="53"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="61"/>
+      <c r="D12" s="77"/>
       <c r="E12" s="13">
         <v>2</v>
       </c>
@@ -1540,7 +1568,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="70" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -1557,7 +1585,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="56"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="21" t="s">
         <v>36</v>
       </c>
@@ -1572,7 +1600,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="70" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -1589,7 +1617,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="55"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="22" t="s">
         <v>44</v>
       </c>
@@ -1604,7 +1632,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="55"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="22" t="s">
         <v>45</v>
       </c>
@@ -1619,7 +1647,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="55"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="22" t="s">
         <v>55</v>
       </c>
@@ -1632,7 +1660,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="55"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="22" t="s">
         <v>46</v>
       </c>
@@ -1645,7 +1673,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="56"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="23" t="s">
         <v>47</v>
       </c>
@@ -1660,7 +1688,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="70" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -1677,7 +1705,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="55"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="22" t="s">
         <v>50</v>
       </c>
@@ -1692,7 +1720,7 @@
       </c>
     </row>
     <row r="23" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="55"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="22" t="s">
         <v>51</v>
       </c>
@@ -1707,7 +1735,7 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="55"/>
+      <c r="B24" s="71"/>
       <c r="C24" s="19" t="s">
         <v>52</v>
       </c>
@@ -1722,11 +1750,11 @@
       </c>
     </row>
     <row r="25" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="55"/>
+      <c r="B25" s="71"/>
       <c r="C25" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="74" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="12">
@@ -1737,11 +1765,11 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="57"/>
+      <c r="B26" s="73"/>
       <c r="C26" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="59"/>
+      <c r="D26" s="75"/>
       <c r="E26" s="13">
         <v>3</v>
       </c>
@@ -1828,38 +1856,38 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="72"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="42" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="11"/>
@@ -1867,8 +1895,8 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
-      <c r="C5" s="68" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="43" t="s">
         <v>62</v>
       </c>
       <c r="D5" s="12"/>
@@ -1876,8 +1904,8 @@
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="38"/>
-      <c r="C6" s="68" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="43" t="s">
         <v>63</v>
       </c>
       <c r="D6" s="12"/>
@@ -1885,8 +1913,8 @@
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="38"/>
-      <c r="C7" s="68" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="43" t="s">
         <v>61</v>
       </c>
       <c r="D7" s="12"/>
@@ -1894,8 +1922,8 @@
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="38"/>
-      <c r="C8" s="68" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="43" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="12"/>
@@ -1903,8 +1931,8 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="39"/>
-      <c r="C9" s="69" t="s">
+      <c r="B9" s="55"/>
+      <c r="C9" s="44" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="13"/>
@@ -1912,10 +1940,10 @@
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="42" t="s">
         <v>72</v>
       </c>
       <c r="D10" s="11"/>
@@ -1923,8 +1951,8 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
-      <c r="C11" s="68" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="43" t="s">
         <v>64</v>
       </c>
       <c r="D11" s="12"/>
@@ -1932,8 +1960,8 @@
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="38"/>
-      <c r="C12" s="68" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="43" t="s">
         <v>65</v>
       </c>
       <c r="D12" s="12"/>
@@ -1941,8 +1969,8 @@
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="38"/>
-      <c r="C13" s="68" t="s">
+      <c r="B13" s="54"/>
+      <c r="C13" s="43" t="s">
         <v>66</v>
       </c>
       <c r="D13" s="12"/>
@@ -1950,8 +1978,8 @@
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="68" t="s">
+      <c r="B14" s="54"/>
+      <c r="C14" s="43" t="s">
         <v>71</v>
       </c>
       <c r="D14" s="12"/>
@@ -1959,8 +1987,8 @@
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="39"/>
-      <c r="C15" s="69" t="s">
+      <c r="B15" s="55"/>
+      <c r="C15" s="44" t="s">
         <v>70</v>
       </c>
       <c r="D15" s="13"/>
@@ -1971,92 +1999,92 @@
       <c r="B16" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="76"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="50"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="62"/>
-      <c r="C17" s="64"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="39"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="62"/>
-      <c r="C18" s="64"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="39"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="62"/>
-      <c r="C19" s="64"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="39"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="62"/>
-      <c r="C20" s="64"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="39"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="62"/>
-      <c r="C21" s="64"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="39"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="62"/>
-      <c r="C22" s="64"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="39"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="62"/>
-      <c r="C23" s="64"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="39"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="62"/>
-      <c r="C24" s="64"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="39"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="62"/>
-      <c r="C25" s="64"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="39"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
-      <c r="C26" s="64"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="39"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="62"/>
-      <c r="C27" s="64"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="39"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="62"/>
-      <c r="C28" s="64"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="39"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="62"/>
-      <c r="C29" s="64"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="39"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="62"/>
-      <c r="C30" s="64"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="39"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="62"/>
-      <c r="C31" s="64"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="39"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="62"/>
-      <c r="C32" s="64"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="39"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="63"/>
-      <c r="C35" s="62"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="37"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2072,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,27 +2115,27 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="39" t="s">
         <v>81</v>
       </c>
       <c r="H3" t="s">
@@ -2115,156 +2143,289 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="64"/>
+      <c r="C5" s="39"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="64"/>
+      <c r="C6" s="39"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="64"/>
+      <c r="C7" s="39"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="64"/>
+      <c r="C8" s="39"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="64"/>
+      <c r="C9" s="39"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="63"/>
-      <c r="C28" s="64"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="39"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="63"/>
-      <c r="C30" s="64"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="39"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="39"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="63"/>
-      <c r="C32" s="64"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="63"/>
-      <c r="C33" s="64"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="63"/>
-      <c r="C35" s="64"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="39"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="63"/>
-      <c r="C36" s="64"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="39"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="63"/>
-      <c r="C37" s="78"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="52"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="63"/>
-      <c r="C38" s="78"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="50.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C3" s="80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C5" s="80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="80" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="80"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="80"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="80"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="80"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="80"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="80"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="80"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="80"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="80"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="80"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="80"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="80"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="80"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="80"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="80"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="80"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="80"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="80"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="80"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="80"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="79"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>